--- a/outputs-HGR-r202-archive/g__Fusobacterium_A.xlsx
+++ b/outputs-HGR-r202-archive/g__Fusobacterium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,53 +548,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88709.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0304049206237368</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.161597507938726</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05825845372263146</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5462021742522614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01600084265842165</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1448066637432346</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.008785886604111764</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03287744805432928</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.001066102402547167</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5462021742522614</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>s__Fusobacterium_A sp900549465</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>s__Fusobacterium_A sp900549465(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
